--- a/Mifos Automation Excels/Loan Product/4917-DisbursementAfterMaturityDate.xlsx
+++ b/Mifos Automation Excels/Loan Product/4917-DisbursementAfterMaturityDate.xlsx
@@ -90,9 +90,6 @@
     <t>Declining Balance</t>
   </si>
   <si>
-    <t>RepaymentStrategy</t>
-  </si>
-  <si>
     <t>Principal, Interest, Penalties, Fees Order</t>
   </si>
   <si>
@@ -214,6 +211,9 @@
   </si>
   <si>
     <t>ConsiderFutureDisbursementsInSchedule</t>
+  </si>
+  <si>
+    <t>repaymentstrategy</t>
   </si>
 </sst>
 </file>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -728,15 +728,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>5</v>
@@ -744,31 +744,31 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>5</v>
@@ -776,7 +776,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>5</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>5</v>
@@ -792,7 +792,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>5</v>
@@ -800,7 +800,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>5</v>
@@ -808,7 +808,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
@@ -816,7 +816,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B29" s="10">
         <v>2</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B30" s="10">
         <v>10000</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>5</v>
@@ -840,98 +840,98 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
